--- a/data/trans_bre/P6906-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P6906-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>222,74%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-27,59; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-31,38; 42,34</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-33,07; 61,78</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 34,42</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 489,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,31%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,97; 27,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,34; 41,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,53; 27,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,51; 17,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,68; 250,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,75; 425,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,21; 197,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,54; 141,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,31; 6,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,7; 26,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 32,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 21,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,99; 36,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,05; 144,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 283,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 187,6</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 23,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,6; 0,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,5; 15,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; 22,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,24; 157,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,17; 5,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,68; 76,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,12; 259,76</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,34%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,2; 5,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,24; 20,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,35; 25,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,37; 19,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,43; 27,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,29; 107,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,2; 114,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,11; 121,27</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,99%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,67; 5,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 11,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 16,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 14,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,36; 29,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; 45,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,56; 82,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,28; 93,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6906-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,06</t>
+          <t>14,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,86</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,08</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-34,21%</t>
+          <t>80,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>222,74%</t>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 0,0</t>
+          <t>-11,22; 21,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 42,34</t>
+          <t>-2,74; 34,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-33,07; 61,78</t>
+          <t>-12,49; 30,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 34,42</t>
+          <t>-12,77; 17,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,07; 259,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 489,82</t>
+          <t>-16,59; 262,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,12; 212,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,82; 165,72</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,68</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>9,69</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>-28,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>134,07%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>56,96%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 27,08</t>
+          <t>-17,31; 6,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 41,83</t>
+          <t>-5,7; 26,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 27,64</t>
+          <t>1,32; 32,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,51; 17,75</t>
+          <t>-1,74; 20,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-65,68; 250,36</t>
+          <t>-67,99; 36,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,75; 425,99</t>
+          <t>-19,05; 144,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,21; 197,08</t>
+          <t>-1,12; 283,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,54; 141,45</t>
+          <t>-9,28; 180,74</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,3</t>
+          <t>7,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>-15,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,12</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-28,25%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>-43,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>61,29%</t>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 6,83</t>
+          <t>-7,04; 23,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 26,08</t>
+          <t>-30,6; 0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 32,19</t>
+          <t>-12,5; 15,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 21,01</t>
+          <t>-17,47; 17,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 36,72</t>
+          <t>-31,24; 157,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 144,79</t>
+          <t>-72,17; 5,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 283,89</t>
+          <t>-42,68; 76,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 187,6</t>
+          <t>-63,95; 152,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-15,67</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>-19,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-43,12%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>30,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>36,28%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 23,38</t>
+          <t>-17,2; 5,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 0,88</t>
+          <t>-10,24; 20,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 15,42</t>
+          <t>-6,35; 25,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 22,72</t>
+          <t>-4,29; 19,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 157,22</t>
+          <t>-50,43; 27,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,17; 5,67</t>
+          <t>-35,29; 107,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 76,68</t>
+          <t>-19,2; 114,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 259,76</t>
+          <t>-15,46; 122,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,54</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,79</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,94</t>
+          <t>6,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-19,15%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 5,94</t>
+          <t>-7,67; 5,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 20,51</t>
+          <t>-4,49; 11,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 25,07</t>
+          <t>0,82; 16,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 19,74</t>
+          <t>-2,64; 12,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 27,05</t>
+          <t>-31,36; 29,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 107,56</t>
+          <t>-16,32; 45,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 114,94</t>
+          <t>2,56; 82,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 121,27</t>
+          <t>-10,24; 80,12</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,58</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>8,74</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,99</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-4,18%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>13,8%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>36,6%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>42,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 5,98</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-4,49; 11,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 16,82</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 14,25</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-31,36; 29,97</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-16,32; 45,67</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 82,42</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 93,05</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P6906-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6906-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 21,76</t>
+          <t>-11,35; 21,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 34,19</t>
+          <t>-3,51; 32,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 30,12</t>
+          <t>-13,4; 28,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 17,33</t>
+          <t>-11,62; 19,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,07; 259,28</t>
+          <t>-65,04; 207,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 262,23</t>
+          <t>-13,9; 269,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 212,08</t>
+          <t>-47,94; 196,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 165,72</t>
+          <t>-40,68; 209,25</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 6,83</t>
+          <t>-16,98; 7,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 26,08</t>
+          <t>-5,5; 27,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 32,19</t>
+          <t>0,52; 32,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 20,51</t>
+          <t>-1,02; 20,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,99; 36,72</t>
+          <t>-67,05; 41,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 144,79</t>
+          <t>-19,62; 152,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 283,89</t>
+          <t>-1,92; 306,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 180,74</t>
+          <t>-9,0; 179,62</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 23,38</t>
+          <t>-7,76; 23,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 0,88</t>
+          <t>-31,58; 0,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 15,42</t>
+          <t>-14,19; 15,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 17,33</t>
+          <t>-18,71; 16,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 157,22</t>
+          <t>-33,75; 160,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-72,17; 5,67</t>
+          <t>-71,16; 5,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 76,68</t>
+          <t>-41,63; 76,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-63,95; 152,83</t>
+          <t>-65,49; 148,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 5,94</t>
+          <t>-17,12; 6,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 20,51</t>
+          <t>-9,31; 21,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 25,07</t>
+          <t>-6,43; 25,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 19,8</t>
+          <t>-4,05; 20,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,43; 27,05</t>
+          <t>-50,7; 28,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 107,56</t>
+          <t>-31,41; 114,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 114,94</t>
+          <t>-20,01; 118,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 122,36</t>
+          <t>-14,41; 132,31</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 5,98</t>
+          <t>-7,6; 5,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 11,06</t>
+          <t>-3,85; 12,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 16,82</t>
+          <t>0,7; 17,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 12,71</t>
+          <t>-1,8; 12,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 29,97</t>
+          <t>-29,87; 28,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 45,67</t>
+          <t>-14,34; 54,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 82,42</t>
+          <t>1,76; 81,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 80,12</t>
+          <t>-7,81; 82,42</t>
         </is>
       </c>
     </row>
